--- a/outputs/chart_data/All_REF_case_studies_by_funder.xlsx
+++ b/outputs/chart_data/All_REF_case_studies_by_funder.xlsx
@@ -25,49 +25,49 @@
     <t>percentage</t>
   </si>
   <si>
-    <t>cclrc</t>
-  </si>
-  <si>
-    <t>uk_space_agency</t>
-  </si>
-  <si>
-    <t>pparc</t>
-  </si>
-  <si>
-    <t>royal_academy_engineering</t>
-  </si>
-  <si>
-    <t>stfc</t>
-  </si>
-  <si>
-    <t>rcuk</t>
-  </si>
-  <si>
-    <t>bbsrc</t>
-  </si>
-  <si>
-    <t>nerc</t>
-  </si>
-  <si>
-    <t>british_academy</t>
-  </si>
-  <si>
-    <t>wellcome</t>
-  </si>
-  <si>
-    <t>royal_society</t>
-  </si>
-  <si>
-    <t>mrc</t>
-  </si>
-  <si>
-    <t>ahrc</t>
-  </si>
-  <si>
-    <t>esrc</t>
-  </si>
-  <si>
-    <t>epsrc</t>
+    <t>CCLRC</t>
+  </si>
+  <si>
+    <t>UK Space Agency</t>
+  </si>
+  <si>
+    <t>PPARC</t>
+  </si>
+  <si>
+    <t>Royal Academy Eng.</t>
+  </si>
+  <si>
+    <t>STFC</t>
+  </si>
+  <si>
+    <t>RCUK</t>
+  </si>
+  <si>
+    <t>BBSRC</t>
+  </si>
+  <si>
+    <t>NERC</t>
+  </si>
+  <si>
+    <t>British Academy</t>
+  </si>
+  <si>
+    <t>Wellcome</t>
+  </si>
+  <si>
+    <t>Royal Society</t>
+  </si>
+  <si>
+    <t>MRC</t>
+  </si>
+  <si>
+    <t>AHRC</t>
+  </si>
+  <si>
+    <t>ESRC</t>
+  </si>
+  <si>
+    <t>EPSRC</t>
   </si>
 </sst>
 </file>
